--- a/data/trans_camb/P33A-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P33A-Clase-trans_camb.xlsx
@@ -618,7 +618,7 @@
         <v>-3.114162716018243</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>2.80099348969155</v>
+        <v>2.800993489691539</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>-0.8746470938015949</v>
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.849187350744385</v>
+        <v>-4.281765008993251</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.361819702988147</v>
+        <v>-4.023049889304274</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-9.913611221000664</v>
+        <v>-9.700508869095028</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.697902374055407</v>
+        <v>-3.020750333592595</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-5.261849949524172</v>
+        <v>-5.134611828869902</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-2.223582598180884</v>
+        <v>-2.645050278487853</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.873894682356507</v>
+        <v>7.066155021975195</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.512018436050825</v>
+        <v>5.941440773816527</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.831758942173636</v>
+        <v>4.432071332427322</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9.013688508146755</v>
+        <v>8.787233581295821</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.390813123790285</v>
+        <v>3.521068435973869</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>5.495037484257665</v>
+        <v>5.385067521472143</v>
       </c>
     </row>
     <row r="7">
@@ -696,7 +696,7 @@
         <v>-0.04091812231784759</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>0.03680327737313461</v>
+        <v>0.03680327737313446</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.0109691823256885</v>
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.04543636198978846</v>
+        <v>-0.0500173954511197</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.05162973259531023</v>
+        <v>-0.04795277921747947</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1257701804114619</v>
+        <v>-0.121955676776494</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.03305964707036399</v>
+        <v>-0.03750937179675085</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.06406743795852736</v>
+        <v>-0.06243617235281575</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.02650592424046339</v>
+        <v>-0.0320501024931816</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.08682898458096396</v>
+        <v>0.08914219515851832</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.06924639194964087</v>
+        <v>0.07405804561242249</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.06736017960557926</v>
+        <v>0.06228173263893611</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.1259183350360591</v>
+        <v>0.123309705714532</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.0437650219197455</v>
+        <v>0.04583010472906068</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.07136145832003521</v>
+        <v>0.07075632759645063</v>
       </c>
     </row>
     <row r="10">
@@ -778,13 +778,13 @@
         <v>0.8902007319533056</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1.874285620916927</v>
+        <v>1.874285620916916</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>-1.433248467962556</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.9870563895992723</v>
+        <v>0.9870563895992834</v>
       </c>
     </row>
     <row r="11">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-8.461257723408504</v>
+        <v>-8.978520074730646</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.855393626757675</v>
+        <v>-4.893075237503839</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-5.965435629204322</v>
+        <v>-5.543918193417204</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-4.586454530029141</v>
+        <v>-4.358702657311439</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-5.89080518760882</v>
+        <v>-5.886343650777208</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-2.998507093017932</v>
+        <v>-3.5019158232801</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.903041070584564</v>
+        <v>2.627986854974737</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.908738706103698</v>
+        <v>5.77352276986151</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.998834474150625</v>
+        <v>8.370892240356866</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.724837261831887</v>
+        <v>8.189905808232766</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.048922972084009</v>
+        <v>3.168510825528807</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>5.201171081066203</v>
+        <v>4.460465580092876</v>
       </c>
     </row>
     <row r="13">
@@ -856,13 +856,13 @@
         <v>0.01195403677705324</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>0.02516879445153978</v>
+        <v>0.02516879445153963</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.01811529638413841</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01247572869962109</v>
+        <v>0.01247572869962123</v>
       </c>
     </row>
     <row r="14">
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.09938991995615738</v>
+        <v>-0.1048470278899022</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.05684522198364628</v>
+        <v>-0.05718573086682928</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.07551049867676572</v>
+        <v>-0.07242539354150848</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.05839869392942287</v>
+        <v>-0.05525246675956258</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.07201785463984167</v>
+        <v>-0.07246482341870582</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.03674500669943507</v>
+        <v>-0.04261327676759585</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.03684433586146334</v>
+        <v>0.03360579513294223</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.07344683276668469</v>
+        <v>0.07136166963178593</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.09847518321136446</v>
+        <v>0.1207964778260258</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1101404464147652</v>
+        <v>0.1158151396870688</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.03909757784374736</v>
+        <v>0.04144525629459864</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.06837189816827711</v>
+        <v>0.05925320407797523</v>
       </c>
     </row>
     <row r="16">
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-7.148623009214723</v>
+        <v>-7.7582473381129</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-12.14319392028765</v>
+        <v>-12.36530724638349</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-11.5991420260957</v>
+        <v>-11.94322702988443</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-9.11131137269312</v>
+        <v>-8.912092312408365</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-6.156193534101125</v>
+        <v>-5.947628158046014</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-9.978513700513894</v>
+        <v>-9.370892468464927</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8483193848251031</v>
+        <v>0.8382925667669042</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-3.184911792338436</v>
+        <v>-3.207212090822237</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.299619195574081</v>
+        <v>7.761808300475249</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7.202890950935538</v>
+        <v>6.690715338873154</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.051494428416341</v>
+        <v>2.728958997126258</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-1.534754337077343</v>
+        <v>-1.394752795516445</v>
       </c>
     </row>
     <row r="19">
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.07988046352335532</v>
+        <v>-0.08607953137307227</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1356691475643933</v>
+        <v>-0.1398374088684375</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1570300840269599</v>
+        <v>-0.1631537931742365</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1226621680984178</v>
+        <v>-0.1226148041047204</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.07289887836814679</v>
+        <v>-0.06987025060185413</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1167153277829122</v>
+        <v>-0.1120725806026735</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.009674089879576417</v>
+        <v>0.009588543283789403</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.0370045366078326</v>
+        <v>-0.03790024342204386</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.1135065683389695</v>
+        <v>0.1155334967663526</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1099654905526502</v>
+        <v>0.1008629158408381</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.02540692584321791</v>
+        <v>0.03380835436053503</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.01821530984105439</v>
+        <v>-0.01756974247600543</v>
       </c>
     </row>
     <row r="22">
@@ -1092,19 +1092,19 @@
         <v>-0.06118010088620451</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>-4.4825918559103</v>
+        <v>-4.482591855910323</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>-1.305634122861477</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1.78744944420467</v>
+        <v>1.787449444204658</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>-0.8586575715802902</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-2.211286739960139</v>
+        <v>-2.211286739960128</v>
       </c>
     </row>
     <row r="23">
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.158696179890002</v>
+        <v>-3.234779549250485</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-7.592517944077186</v>
+        <v>-7.850481865665921</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-6.119877058139152</v>
+        <v>-6.728079887262554</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.307263218969827</v>
+        <v>-2.988508842983818</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-3.583989251201477</v>
+        <v>-3.384136738848587</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-4.845312299163961</v>
+        <v>-5.052411027247563</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.159144222623215</v>
+        <v>2.905146529394823</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.9885215114280744</v>
+        <v>-1.006608245353399</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.074545452716132</v>
+        <v>2.888241575335133</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6.282545337762925</v>
+        <v>5.742173467427222</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.772873058935465</v>
+        <v>1.955670304947827</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.3551633342091585</v>
+        <v>0.4288658448962142</v>
       </c>
     </row>
     <row r="25">
@@ -1170,19 +1170,19 @@
         <v>-0.000720626041451453</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>-0.05279939682635527</v>
+        <v>-0.05279939682635553</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>-0.01811893511508198</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>0.02480532634215618</v>
+        <v>0.02480532634215603</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>-0.01076066420653372</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.02771176177865535</v>
+        <v>-0.02771176177865521</v>
       </c>
     </row>
     <row r="26">
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.03637250064835745</v>
+        <v>-0.03726904929335931</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.08792750734590046</v>
+        <v>-0.09058883947109406</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.08195042578391641</v>
+        <v>-0.08948657610995417</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.03108747746909079</v>
+        <v>-0.03941465029342274</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.04388307810672838</v>
+        <v>-0.04180137520393261</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.06002936209634199</v>
+        <v>-0.06264185352590469</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.03777954913088694</v>
+        <v>0.03495004929303278</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.01173276172671475</v>
+        <v>-0.01207949730573604</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.04352172043904798</v>
+        <v>0.04223752078347878</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.09111853177209281</v>
+        <v>0.08240351994820752</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.02263884927050834</v>
+        <v>0.02495990872739499</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.004097950954781352</v>
+        <v>0.00543936447835047</v>
       </c>
     </row>
     <row r="28">
@@ -1252,19 +1252,19 @@
         <v>-1.525946923826682</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>-1.35498496182368</v>
+        <v>-1.354984961823669</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>-0.9485702457960321</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>-0.2101296589740342</v>
+        <v>-0.2101296589740453</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>-0.3850173099349652</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-0.5915454087494054</v>
+        <v>-0.5915454087494276</v>
       </c>
     </row>
     <row r="29">
@@ -1275,22 +1275,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-5.883391015785373</v>
+        <v>-5.772732764756023</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-5.729512893763626</v>
+        <v>-5.633413542221922</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-5.772327992878943</v>
+        <v>-6.099179786112326</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-4.501059811507653</v>
+        <v>-4.176985315078455</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-3.777781860512882</v>
+        <v>-3.656997737269543</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-3.73955552075262</v>
+        <v>-3.838383505563277</v>
       </c>
     </row>
     <row r="30">
@@ -1301,22 +1301,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.916053876276949</v>
+        <v>3.045610467543415</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.004632914805412</v>
+        <v>3.127481184718853</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4.114795219957643</v>
+        <v>3.714071450123221</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4.277671637090068</v>
+        <v>4.248739399857909</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>3.122760032319355</v>
+        <v>3.287422237217467</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>2.677496062979987</v>
+        <v>2.88653150219873</v>
       </c>
     </row>
     <row r="31">
@@ -1330,19 +1330,19 @@
         <v>-0.01797467489520871</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>-0.01596085276386961</v>
+        <v>-0.01596085276386948</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>-0.0134892826778385</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>-0.002988179717275301</v>
+        <v>-0.002988179717275459</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>-0.005055633329538906</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.007767538256693888</v>
+        <v>-0.00776753825669418</v>
       </c>
     </row>
     <row r="32">
@@ -1353,22 +1353,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.0676808510703109</v>
+        <v>-0.06648147865682381</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.06573334295526537</v>
+        <v>-0.0645287702722927</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.07999688247596487</v>
+        <v>-0.08343248314122799</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.06146094053508016</v>
+        <v>-0.05731142214666509</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.04837327049988215</v>
+        <v>-0.04701772324433248</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.04736604651119641</v>
+        <v>-0.049088018345342</v>
       </c>
     </row>
     <row r="33">
@@ -1379,22 +1379,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.03459323563762675</v>
+        <v>0.03657742629358519</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.03678658481113831</v>
+        <v>0.03620664678203085</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.06135237117949379</v>
+        <v>0.05491255216164165</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.06341576057629034</v>
+        <v>0.06254810530344958</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.0414085616273235</v>
+        <v>0.04489354331086575</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.03632427449289902</v>
+        <v>0.03914146214400697</v>
       </c>
     </row>
     <row r="34">
@@ -1418,13 +1418,13 @@
         <v>3.268035643228673</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>-1.757123131506888</v>
+        <v>-1.757123131506877</v>
       </c>
       <c r="G34" s="5" t="n">
         <v>3.467046436466936</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>1.17213959801431</v>
+        <v>1.172139598014299</v>
       </c>
     </row>
     <row r="35">
@@ -1435,22 +1435,22 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-2.501296602896733</v>
+        <v>-2.348935910918267</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>5.741143218753657</v>
+        <v>5.073293958957799</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-0.6672884555712583</v>
+        <v>-0.3542185787674821</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-5.727758706511844</v>
+        <v>-5.239388043698977</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>0.1904510659400991</v>
+        <v>0.1064983893827965</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-1.978662495116508</v>
+        <v>-2.42913638044021</v>
       </c>
     </row>
     <row r="36">
@@ -1461,22 +1461,22 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>9.755073785589252</v>
+        <v>9.461446507917703</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>16.46907995700953</v>
+        <v>16.28152099359216</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>6.827424294886994</v>
+        <v>6.907470133785763</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1.758133209635258</v>
+        <v>2.233721680740225</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>6.681145717329979</v>
+        <v>6.493600844945356</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>4.506166741492041</v>
+        <v>4.650776689311657</v>
       </c>
     </row>
     <row r="37">
@@ -1496,13 +1496,13 @@
         <v>0.04299705368188569</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>-0.02311820489706888</v>
+        <v>-0.02311820489706874</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.04466172461354063</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.01509924279770764</v>
+        <v>0.0150992427977075</v>
       </c>
     </row>
     <row r="38">
@@ -1513,22 +1513,22 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.02961793742689634</v>
+        <v>-0.02661223474144795</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>0.06630724690352029</v>
+        <v>0.05981319544511274</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.008220983991111529</v>
+        <v>-0.004059182360924178</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.07331607227464434</v>
+        <v>-0.06698336256150461</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.00232675432658224</v>
+        <v>0.001251538370202843</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.02508671042956562</v>
+        <v>-0.03080518043463314</v>
       </c>
     </row>
     <row r="39">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.1235139820395033</v>
+        <v>0.1161357160751668</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.2053161863109301</v>
+        <v>0.2058349887540348</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.09360489465335738</v>
+        <v>0.09279680310417052</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.02358748657945609</v>
+        <v>0.03020475815789708</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.08726396178326823</v>
+        <v>0.0852159554440919</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.0597741962708092</v>
+        <v>0.06154443609337103</v>
       </c>
     </row>
     <row r="40">
@@ -1578,7 +1578,7 @@
         <v>0.2795086869268659</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>0.4480272482527803</v>
+        <v>0.4480272482527914</v>
       </c>
       <c r="G40" s="5" t="n">
         <v>-0.2157773833601828</v>
@@ -1595,22 +1595,22 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-2.51771165204197</v>
+        <v>-2.501526280026891</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-3.893288315862396</v>
+        <v>-3.933491666101903</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-1.842668084143777</v>
+        <v>-1.852219774135223</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-1.67972687334538</v>
+        <v>-1.461062767568836</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-1.664783051427874</v>
+        <v>-1.72845658898667</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-2.235534668364376</v>
+        <v>-2.342679386449474</v>
       </c>
     </row>
     <row r="42">
@@ -1621,22 +1621,22 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>1.150322835401974</v>
+        <v>1.097802683755039</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-0.2350330534526316</v>
+        <v>-0.2033119261697829</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>2.477085763844604</v>
+        <v>2.544296752424977</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>2.23721615742883</v>
+        <v>2.483184491834043</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>1.240295722622168</v>
+        <v>1.227694300904548</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>0.5854748072236001</v>
+        <v>0.5075799772849394</v>
       </c>
     </row>
     <row r="43">
@@ -1656,7 +1656,7 @@
         <v>0.003810257661850392</v>
       </c>
       <c r="F43" s="6" t="n">
-        <v>0.006107499820996869</v>
+        <v>0.006107499820997021</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>-0.002731385710056676</v>
@@ -1673,22 +1673,22 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.02915257543289657</v>
+        <v>-0.02923550931519289</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.04542238750359939</v>
+        <v>-0.04612066541150697</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.02456816937044746</v>
+        <v>-0.0248580106711309</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.02261149682487253</v>
+        <v>-0.01957863126294062</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.02096659191048761</v>
+        <v>-0.02168285847421234</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.02805201601638071</v>
+        <v>-0.02935455669104712</v>
       </c>
     </row>
     <row r="45">
@@ -1699,22 +1699,22 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.01387979558342186</v>
+        <v>0.01311921814241727</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.002803529985964262</v>
+        <v>-0.002535445575586067</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.03426297163493763</v>
+        <v>0.03527460854404323</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.03087677160167566</v>
+        <v>0.03443614166544996</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.0158937042901665</v>
+        <v>0.01577959509351858</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.007375527349265046</v>
+        <v>0.006405094996630062</v>
       </c>
     </row>
     <row r="46">
